--- a/USA/state/data/dic/1980_2016/DIC comparison models 1d and 1e 1980-2016.xlsx
+++ b/USA/state/data/dic/1980_2016/DIC comparison models 1d and 1e 1980-2016.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rmiparks/git/mortality/USA/state/data/dic/1980_2016/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0A43DD-31C6-024D-A37F-247ADAC7FD89}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB630D97-66D8-444B-82FA-35AD36AEAD67}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10360" windowHeight="18000" xr2:uid="{C5D6F9F6-4735-9542-B608-875F16A3F9AD}"/>
+    <workbookView xWindow="18500" yWindow="0" windowWidth="10300" windowHeight="18000" xr2:uid="{C5D6F9F6-4735-9542-B608-875F16A3F9AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,7 +414,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -590,9 +590,15 @@
       <c r="C11">
         <v>85</v>
       </c>
+      <c r="D11">
+        <v>130685.02</v>
+      </c>
+      <c r="E11">
+        <v>130712.81</v>
+      </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>subnational</v>
+        <v>national</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -725,9 +731,15 @@
       <c r="C20">
         <v>75</v>
       </c>
+      <c r="D20">
+        <v>135112.01</v>
+      </c>
+      <c r="E20">
+        <v>135118.64000000001</v>
+      </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
-        <v>subnational</v>
+        <v>national</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">

--- a/USA/state/data/dic/1980_2016/DIC comparison models 1d and 1e 1980-2016.xlsx
+++ b/USA/state/data/dic/1980_2016/DIC comparison models 1d and 1e 1980-2016.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rmiparks/git/mortality/USA/state/data/dic/1980_2016/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB630D97-66D8-444B-82FA-35AD36AEAD67}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766DE7BF-9787-AF4D-BCE5-18FB21DF09B1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18500" yWindow="0" windowWidth="10300" windowHeight="18000" xr2:uid="{C5D6F9F6-4735-9542-B608-875F16A3F9AD}"/>
   </bookViews>

--- a/USA/state/data/dic/1980_2016/DIC comparison models 1d and 1e 1980-2016.xlsx
+++ b/USA/state/data/dic/1980_2016/DIC comparison models 1d and 1e 1980-2016.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rmiparks/git/mortality/USA/state/data/dic/1980_2016/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766DE7BF-9787-AF4D-BCE5-18FB21DF09B1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6ED9D25-3BF0-0A43-AF22-404FF1CF0AA7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18500" yWindow="0" windowWidth="10300" windowHeight="18000" xr2:uid="{C5D6F9F6-4735-9542-B608-875F16A3F9AD}"/>
+    <workbookView xWindow="8420" yWindow="-28080" windowWidth="10000" windowHeight="17540" xr2:uid="{C5D6F9F6-4735-9542-B608-875F16A3F9AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,7 +414,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -575,9 +575,15 @@
       <c r="C10">
         <v>75</v>
       </c>
+      <c r="D10">
+        <v>134331.96</v>
+      </c>
+      <c r="E10">
+        <v>134345.64000000001</v>
+      </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>subnational</v>
+        <v>national</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
